--- a/tests/test_data/test_dfs_wg.xlsx
+++ b/tests/test_data/test_dfs_wg.xlsx
@@ -340,9 +340,6 @@
     <t>head_tu</t>
   </si>
   <si>
-    <t>wohngeld_hh</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>miete</t>
+  </si>
+  <si>
+    <t>wohngeld_basis_hh</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -809,10 +809,10 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -860,22 +860,22 @@
         <v>3</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AC1" t="s">
         <v>15</v>
       </c>
       <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s">
         <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>35</v>
       </c>
       <c r="AF1" t="s">
         <v>16</v>
       </c>
       <c r="AG1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" t="s">
         <v>23</v>
@@ -887,16 +887,16 @@
         <v>25</v>
       </c>
       <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
-        <v>32</v>
-      </c>
       <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
         <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">

--- a/tests/test_data/test_dfs_wg.xlsx
+++ b/tests/test_data/test_dfs_wg.xlsx
@@ -19,32 +19,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AI2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>RS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WoGG Anlage 1 (zu §19 (1))
-- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AJ2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -71,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI3" authorId="0" shapeId="0">
+    <comment ref="AK2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,31 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-für das arbeitende Kind</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI4" authorId="0" shapeId="0">
+    <comment ref="AK3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,6 +120,30 @@
 WoGG Anlage 1 (zu §19 (1))
 - zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+für das arbeitende Kind</t>
         </r>
       </text>
     </comment>
@@ -199,7 +173,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0">
+    <comment ref="AK4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WoGG Anlage 1 (zu §19 (1))
+- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF7" authorId="0" shapeId="0">
+    <comment ref="AG7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>hid</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>wohngeld_basis_hh</t>
+  </si>
+  <si>
+    <t>hhsize_tu</t>
   </si>
 </sst>
 </file>
@@ -765,22 +768,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,109 +800,112 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -916,30 +922,31 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
+        <f>E2</f>
+        <v>3</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>700</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2000</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -953,79 +960,82 @@
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>25000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1000</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>1000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>100</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>80</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>2016</v>
       </c>
-      <c r="AA2" s="13">
-        <f>1.15*(AN2-((AH2+(AI2*AN2)+(AJ2*AM2))*AM2))</f>
+      <c r="AB2" s="13">
+        <f>1.15*(AO2-((AI2+(AJ2*AO2)+(AK2*AN2))*AN2))</f>
         <v>112.28878874999987</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.3</v>
       </c>
-      <c r="AD2" s="10">
-        <f>(Q2+R2+S2+T2)/12+O2+P2+(M2*N2)</f>
+      <c r="AE2" s="10">
+        <f>(R2+S2+T2+U2)/12+P2+Q2+(N2*O2)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AE2" s="10">
-        <f>SUM($AD$2:$AD$4)</f>
+      <c r="AF2" s="10">
+        <f>SUM($AE$2:$AE$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>100</v>
       </c>
-      <c r="AG2" s="12">
-        <f>MAX(ROUND((1-AC2)*MAX(0,AE2-AF2)+4,-1)-5,0)</f>
+      <c r="AH2" s="12">
+        <f>MAX(ROUND((1-AD2)*MAX(0,AF2-AG2)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.02</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AJ2" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AK2" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>563</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>70</v>
       </c>
-      <c r="AM2" s="12">
-        <f>AG2</f>
+      <c r="AN2" s="12">
+        <f>AH2</f>
         <v>1445</v>
       </c>
-      <c r="AN2">
-        <f>ROUND(MAX(MIN(G2,AK2)+H2,AL2)+4,-1)-5</f>
+      <c r="AO2">
+        <f>ROUND(MAX(MIN(H2,AL2)+I2,AM2)+4,-1)-5</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1041,27 +1051,28 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">E3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>700</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -1102,55 +1113,58 @@
         <v>0</v>
       </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>2016</v>
       </c>
-      <c r="AA3" s="13">
-        <f t="shared" ref="AA3:AA4" si="0">1.15*(AN3-((AH3+(AI3*AN3)+(AJ3*AM3))*AM3))</f>
+      <c r="AB3" s="13">
+        <f t="shared" ref="AB3:AB4" si="1">1.15*(AO3-((AI3+(AJ3*AO3)+(AK3*AN3))*AN3))</f>
         <v>112.28878874999987</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.3</v>
       </c>
-      <c r="AD3" s="10">
-        <f t="shared" ref="AD3:AD13" si="1">(Q3+R3+S3+T3)/12+O3+P3+(M3*N3)</f>
-        <v>0</v>
-      </c>
       <c r="AE3" s="10">
-        <f>SUM($AD$2:$AD$4)</f>
+        <f t="shared" ref="AE3:AE13" si="2">(R3+S3+T3+U3)/12+P3+Q3+(N3*O3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
+        <f>SUM($AE$2:$AE$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>100</v>
       </c>
-      <c r="AG3" s="12">
-        <f t="shared" ref="AG3:AG13" si="2">MAX(ROUND((1-AC3)*MAX(0,AE3-AF3)+4,-1)-5,0)</f>
+      <c r="AH3" s="12">
+        <f t="shared" ref="AH3:AH13" si="3">MAX(ROUND((1-AD3)*MAX(0,AF3-AG3)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.02</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AJ3" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AK3" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>563</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>70</v>
       </c>
-      <c r="AM3" s="12">
-        <f t="shared" ref="AM3:AM8" si="3">AG3</f>
+      <c r="AN3" s="12">
+        <f t="shared" ref="AN3:AN8" si="4">AH3</f>
         <v>1445</v>
       </c>
-      <c r="AN3">
-        <f t="shared" ref="AN3:AN13" si="4">ROUND(MAX(MIN(G3,AK3)+H3,AL3)+4,-1)-5</f>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO13" si="5">ROUND(MAX(MIN(H3,AL3)+I3,AM3)+4,-1)-5</f>
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1166,30 +1180,31 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>700</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>200</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -1227,55 +1242,58 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>2016</v>
       </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="13">
+        <f t="shared" si="1"/>
         <v>112.28878874999987</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.3</v>
       </c>
-      <c r="AD4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE4" s="10">
-        <f>SUM($AD$2:$AD$4)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <f>SUM($AE$2:$AE$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>100</v>
       </c>
-      <c r="AG4" s="12">
-        <f t="shared" si="2"/>
-        <v>1445</v>
-      </c>
-      <c r="AH4">
-        <v>0.02</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>8.2999999999999998E-5</v>
-      </c>
-      <c r="AK4">
-        <v>563</v>
-      </c>
-      <c r="AL4">
-        <v>70</v>
-      </c>
-      <c r="AM4" s="12">
+      <c r="AH4" s="12">
         <f t="shared" si="3"/>
         <v>1445</v>
       </c>
-      <c r="AN4">
+      <c r="AI4">
+        <v>0.02</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="AL4">
+        <v>563</v>
+      </c>
+      <c r="AM4">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="12">
         <f t="shared" si="4"/>
+        <v>1445</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="5"/>
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1291,30 +1309,31 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>400</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>80</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>800</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
       <c r="N5" s="2">
         <v>0</v>
       </c>
@@ -1322,17 +1341,17 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>100</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
       <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>10000</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
@@ -1340,68 +1359,71 @@
         <v>0</v>
       </c>
       <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>100</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>80</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>50</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
       <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
         <v>2013</v>
       </c>
-      <c r="AA5" s="13">
-        <f>1.08*(AN5-((AH5+(AI5*AN5)+(AJ5*AM5))*AM5))</f>
+      <c r="AB5" s="13">
+        <f>1.08*(AO5-((AI5+(AJ5*AO5)+(AK5*AN5))*AN5))</f>
         <v>280.32774057000006</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2">
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2">
         <v>0.3</v>
       </c>
-      <c r="AD5" s="11">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="11">
+        <f t="shared" si="2"/>
         <v>933.33333333333337</v>
       </c>
-      <c r="AE5" s="10">
-        <f>SUM($AD$5:$AD$6)</f>
+      <c r="AF5" s="10">
+        <f>SUM($AE$5:$AE$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AG5" s="2">
         <v>100</v>
       </c>
-      <c r="AG5" s="12">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>5.7609999999999996E-4</v>
-      </c>
-      <c r="AJ5" s="9">
-        <v>6.4309999999999999E-5</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>402</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>55</v>
-      </c>
-      <c r="AM5" s="12">
+      <c r="AH5" s="12">
         <f t="shared" si="3"/>
         <v>585</v>
       </c>
-      <c r="AN5">
+      <c r="AI5" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>5.7609999999999996E-4</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>6.4309999999999999E-5</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>402</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>55</v>
+      </c>
+      <c r="AN5" s="12">
         <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1417,31 +1439,32 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>400</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>80</v>
       </c>
-      <c r="I6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="J6" s="8" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
         <v>3</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
         <v>0</v>
       </c>
       <c r="O6" s="3">
@@ -1474,59 +1497,62 @@
       <c r="X6" s="3">
         <v>0</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <v>2013</v>
       </c>
-      <c r="AA6" s="13">
-        <f>1.08*(AN6-((AH6+(AI6*AN6)+(AJ6*AM6))*AM6))</f>
+      <c r="AB6" s="13">
+        <f>1.08*(AO6-((AI6+(AJ6*AO6)+(AK6*AN6))*AN6))</f>
         <v>280.32774057000006</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>0.3</v>
       </c>
-      <c r="AD6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE6" s="10">
-        <f>SUM($AD$5:$AD$6)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <f>SUM($AE$5:$AE$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <v>100</v>
       </c>
-      <c r="AG6" s="12">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>5.7609999999999996E-4</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>6.4309999999999999E-5</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>402</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>55</v>
-      </c>
-      <c r="AM6" s="12">
+      <c r="AH6" s="12">
         <f t="shared" si="3"/>
         <v>585</v>
       </c>
-      <c r="AN6">
+      <c r="AI6" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>5.7609999999999996E-4</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>6.4309999999999999E-5</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>402</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="12">
         <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1542,30 +1568,31 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>400</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>80</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
       <c r="N7" s="2">
         <v>0</v>
       </c>
@@ -1573,87 +1600,90 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>250</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
       <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <f>1400*12</f>
         <v>16800</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
         <v>1000</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>80</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
       <c r="Y7" s="2">
         <v>0</v>
       </c>
       <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <v>2009</v>
       </c>
-      <c r="AA7" s="13">
-        <f t="shared" ref="AA7:AA8" si="5">1.08*(AN7-((AH7+(AI7*AN7)+(AJ7*AM7))*AM7))</f>
+      <c r="AB7" s="13">
+        <f t="shared" ref="AB7:AB8" si="6">1.08*(AO7-((AI7+(AJ7*AO7)+(AK7*AN7))*AN7))</f>
         <v>28.486336770000033</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2">
         <v>0.3</v>
       </c>
-      <c r="AD7" s="11">
-        <f t="shared" si="1"/>
+      <c r="AE7" s="11">
+        <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="AE7" s="10">
-        <f>SUM($AD$7:$AD$8)</f>
+      <c r="AF7" s="10">
+        <f>SUM($AE$7:$AE$8)</f>
         <v>1650</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>50</v>
       </c>
-      <c r="AG7" s="12">
-        <f t="shared" si="2"/>
-        <v>1115</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>5.7609999999999996E-4</v>
-      </c>
-      <c r="AJ7" s="9">
-        <v>6.4309999999999999E-5</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>402</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>55</v>
-      </c>
-      <c r="AM7" s="12">
+      <c r="AH7" s="12">
         <f t="shared" si="3"/>
         <v>1115</v>
       </c>
-      <c r="AN7">
+      <c r="AI7" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>5.7609999999999996E-4</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>6.4309999999999999E-5</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>402</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>55</v>
+      </c>
+      <c r="AN7" s="12">
         <f t="shared" si="4"/>
+        <v>1115</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1669,27 +1699,28 @@
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>80</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -1730,55 +1761,58 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2009</v>
       </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="5"/>
+      <c r="AB8" s="13">
+        <f t="shared" si="6"/>
         <v>28.486336770000033</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>0.3</v>
       </c>
-      <c r="AD8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE8" s="10">
-        <f>SUM($AD$7:$AD$8)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <f>SUM($AE$7:$AE$8)</f>
         <v>1650</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>50</v>
       </c>
-      <c r="AG8" s="12">
-        <f t="shared" si="2"/>
-        <v>1115</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>5.7609999999999996E-4</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>6.4309999999999999E-5</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>402</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>55</v>
-      </c>
-      <c r="AM8" s="12">
+      <c r="AH8" s="12">
         <f t="shared" si="3"/>
         <v>1115</v>
       </c>
-      <c r="AN8">
+      <c r="AI8" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>5.7609999999999996E-4</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>6.4309999999999999E-5</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>402</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>55</v>
+      </c>
+      <c r="AN8" s="12">
         <f t="shared" si="4"/>
+        <v>1115</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1794,27 +1828,28 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>850</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>120</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
@@ -1843,11 +1878,11 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>50</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
@@ -1855,55 +1890,58 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
         <v>2006</v>
       </c>
-      <c r="AA9" s="13">
-        <f>(AN9-((AH9+(AI9*AN9)+(AJ9*AM9))*AM9))</f>
+      <c r="AB9" s="13">
+        <f>(AO9-((AI9+(AJ9*AO9)+(AK9*AN9))*AN9))</f>
         <v>612.35275024999999</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2">
         <v>0.1</v>
       </c>
-      <c r="AD9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE9" s="11">
-        <f>SUM($AD$9:$AD$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH9">
+      <c r="AF9" s="11">
+        <f>SUM($AE$9:$AE$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>3.48E-4</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AK9" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AL9" s="3">
         <v>580</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>32.5</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AN9" s="12">
         <v>285</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="4"/>
+      <c r="AO9">
+        <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1919,27 +1957,28 @@
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>850</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>120</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -1979,55 +2018,58 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
         <v>2006</v>
       </c>
-      <c r="AA10" s="13">
-        <f t="shared" ref="AA10:AA13" si="6">(AN10-((AH10+(AI10*AN10)+(AJ10*AM10))*AM10))</f>
+      <c r="AB10" s="13">
+        <f t="shared" ref="AB10:AB13" si="7">(AO10-((AI10+(AJ10*AO10)+(AK10*AN10))*AN10))</f>
         <v>612.35275024999999</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE10" s="10">
-        <f t="shared" ref="AE10:AE13" si="7">SUM($AD$9:$AD$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10">
+      <c r="AF10" s="10">
+        <f t="shared" ref="AF10:AF13" si="8">SUM($AE$9:$AE$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3.48E-4</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AK10" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AL10" s="3">
         <v>580</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>32.5</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AN10" s="12">
         <v>285</v>
       </c>
-      <c r="AN10">
-        <f t="shared" si="4"/>
+      <c r="AO10">
+        <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2043,27 +2085,28 @@
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>850</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>120</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
@@ -2103,55 +2146,58 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
         <v>2006</v>
       </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="6"/>
+      <c r="AB11" s="13">
+        <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE11" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH11">
+      <c r="AF11" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>3.48E-4</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AK11" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>580</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>32.5</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AN11" s="12">
         <v>285</v>
       </c>
-      <c r="AN11">
-        <f t="shared" si="4"/>
+      <c r="AO11">
+        <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2167,27 +2213,28 @@
       <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <v>850</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>120</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -2227,55 +2274,58 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
         <v>2006</v>
       </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="6"/>
+      <c r="AB12" s="13">
+        <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE12" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH12">
+      <c r="AF12" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3.48E-4</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AK12" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AL12" s="3">
         <v>580</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>32.5</v>
       </c>
-      <c r="AM12" s="12">
+      <c r="AN12" s="12">
         <v>285</v>
       </c>
-      <c r="AN12">
-        <f t="shared" si="4"/>
+      <c r="AO12">
+        <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2291,27 +2341,28 @@
       <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>850</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>120</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>3</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
@@ -2351,67 +2402,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
         <v>2006</v>
       </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="6"/>
+      <c r="AB13" s="13">
+        <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AE13" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH13">
+      <c r="AF13" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3.48E-4</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AK13" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AL13" s="3">
         <v>580</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>32.5</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AN13" s="12">
         <v>285</v>
       </c>
-      <c r="AN13">
-        <f t="shared" si="4"/>
+      <c r="AO13">
+        <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
-      <c r="AA14" s="1"/>
-      <c r="AC14" s="3"/>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AA15" s="1"/>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AA16" s="1"/>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA17" s="1"/>
+    <row r="17" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_data/test_dfs_wg.xlsx
+++ b/tests/test_data/test_dfs_wg.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="AB5" s="13">
         <f>1.08*(AO5-((AI5+(AJ5*AO5)+(AK5*AN5))*AN5))</f>
-        <v>280.32774057000006</v>
+        <v>244.81431657000002</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE5" s="11">
         <f t="shared" si="2"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="3"/>
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="AI5" s="9">
         <v>5.7000000000000002E-2</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="AN5" s="12">
         <f t="shared" si="4"/>
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="AO5">
         <f t="shared" si="5"/>
@@ -1508,10 +1508,10 @@
       </c>
       <c r="AB6" s="13">
         <f>1.08*(AO6-((AI6+(AJ6*AO6)+(AK6*AN6))*AN6))</f>
-        <v>280.32774057000006</v>
+        <v>244.81431657000002</v>
       </c>
       <c r="AD6" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE6" s="10">
         <f t="shared" si="2"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="3"/>
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="AI6" s="6">
         <v>5.7000000000000002E-2</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AN6" s="12">
         <f t="shared" si="4"/>
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="AO6">
         <f t="shared" si="5"/>

--- a/tests/test_data/test_dfs_wg.xlsx
+++ b/tests/test_data/test_dfs_wg.xlsx
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="AC2" s="13">
         <f>1.15*(AP2-((AJ2+(AK2*AP2)+(AL2*AO2))*AO2))</f>
-        <v>112.28878874999987</v>
+        <v>60.43528875000009</v>
       </c>
       <c r="AE2">
         <v>0.3</v>
@@ -1040,8 +1040,8 @@
         <v>1445</v>
       </c>
       <c r="AP2">
-        <f>ROUND(MAX(MIN(H2,AM2)+I2,AN2)+4,-1)-5</f>
-        <v>665</v>
+        <f>ROUND(MAX(MIN(H2,AM2),AN2)+4,-1)-5</f>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AC3" s="13">
         <f t="shared" ref="AC3:AC4" si="1">1.15*(AP3-((AJ3+(AK3*AP3)+(AL3*AO3))*AO3))</f>
-        <v>112.28878874999987</v>
+        <v>60.43528875000009</v>
       </c>
       <c r="AE3">
         <v>0.3</v>
@@ -1172,8 +1172,8 @@
         <v>1445</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP13" si="5">ROUND(MAX(MIN(H3,AM3)+I3,AN3)+4,-1)-5</f>
-        <v>665</v>
+        <f t="shared" ref="AP3:AP13" si="5">ROUND(MAX(MIN(H3,AM3),AN3)+4,-1)-5</f>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AC4" s="13">
         <f t="shared" si="1"/>
-        <v>112.28878874999987</v>
+        <v>60.43528875000009</v>
       </c>
       <c r="AE4">
         <v>0.3</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="AP4">
         <f t="shared" si="5"/>
-        <v>665</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="AC5" s="13">
         <f>1.08*(AP5-((AJ5+(AK5*AP5)+(AL5*AO5))*AO5))</f>
-        <v>244.81431657000002</v>
+        <v>191.51471817000001</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AC6" s="13">
         <f>1.08*(AP6-((AJ6+(AK6*AP6)+(AL6*AO6))*AO6))</f>
-        <v>244.81431657000002</v>
+        <v>191.51471817000001</v>
       </c>
       <c r="AE6" s="3">
         <v>0.2</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1633,8 +1633,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f>1400*12</f>
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1662,7 +1661,7 @@
       </c>
       <c r="AC7" s="13">
         <f t="shared" ref="AC7:AC8" si="6">1.08*(AP7-((AJ7+(AK7*AP7)+(AL7*AO7))*AO7))</f>
-        <v>28.486336770000033</v>
+        <v>15.962717249999999</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2">
@@ -1670,18 +1669,18 @@
       </c>
       <c r="AF7" s="11">
         <f t="shared" si="2"/>
-        <v>1650</v>
+        <v>1583.3333333333333</v>
       </c>
       <c r="AG7" s="10">
         <f>SUM($AF$7:$AF$8)</f>
-        <v>1650</v>
+        <v>1583.3333333333333</v>
       </c>
       <c r="AH7" s="2">
         <v>50</v>
       </c>
       <c r="AI7" s="12">
         <f t="shared" si="3"/>
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="AJ7" s="9">
         <v>5.7000000000000002E-2</v>
@@ -1700,11 +1699,11 @@
       </c>
       <c r="AO7" s="12">
         <f t="shared" si="4"/>
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="AP7">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1795,7 +1794,7 @@
       </c>
       <c r="AC8" s="13">
         <f t="shared" si="6"/>
-        <v>28.486336770000033</v>
+        <v>15.962717249999999</v>
       </c>
       <c r="AE8" s="3">
         <v>0.3</v>
@@ -1806,14 +1805,14 @@
       </c>
       <c r="AG8" s="10">
         <f>SUM($AF$7:$AF$8)</f>
-        <v>1650</v>
+        <v>1583.3333333333333</v>
       </c>
       <c r="AH8" s="3">
         <v>50</v>
       </c>
       <c r="AI8" s="12">
         <f t="shared" si="3"/>
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="AJ8" s="6">
         <v>5.7000000000000002E-2</v>
@@ -1832,11 +1831,11 @@
       </c>
       <c r="AO8" s="12">
         <f t="shared" si="4"/>
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="AP8">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1927,7 +1926,7 @@
       </c>
       <c r="AC9" s="13">
         <f>(AP9-((AJ9+(AK9*AP9)+(AL9*AO9))*AO9))</f>
-        <v>612.35275024999999</v>
+        <v>504.25435025000002</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2">
@@ -1968,7 +1967,7 @@
       </c>
       <c r="AP9">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -2059,7 +2058,7 @@
       </c>
       <c r="AC10" s="13">
         <f t="shared" ref="AC10:AC13" si="7">(AP10-((AJ10+(AK10*AP10)+(AL10*AO10))*AO10))</f>
-        <v>612.35275024999999</v>
+        <v>504.25435025000002</v>
       </c>
       <c r="AE10" s="3">
         <v>0.1</v>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -2190,7 +2189,7 @@
       </c>
       <c r="AC11" s="13">
         <f t="shared" si="7"/>
-        <v>612.35275024999999</v>
+        <v>504.25435025000002</v>
       </c>
       <c r="AE11" s="3">
         <v>0.1</v>
@@ -2230,7 +2229,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2321,7 +2320,7 @@
       </c>
       <c r="AC12" s="13">
         <f t="shared" si="7"/>
-        <v>612.35275024999999</v>
+        <v>504.25435025000002</v>
       </c>
       <c r="AE12" s="3">
         <v>0.1</v>
@@ -2361,7 +2360,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2452,7 +2451,7 @@
       </c>
       <c r="AC13" s="13">
         <f t="shared" si="7"/>
-        <v>612.35275024999999</v>
+        <v>504.25435025000002</v>
       </c>
       <c r="AE13" s="3">
         <v>0.1</v>
@@ -2492,7 +2491,7 @@
       </c>
       <c r="AP13">
         <f t="shared" si="5"/>
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
